--- a/DEVA-exp-APR-22.xlsx
+++ b/DEVA-exp-APR-22.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E5663984\OneDrive - FIS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fisglobal-my.sharepoint.com/personal/sanket_nimase_fisglobal_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37018C38-F4C3-4341-94B3-F2353F0CDD5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{37018C38-F4C3-4341-94B3-F2353F0CDD5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99B48970-B48E-4446-9F0B-3EDFABD71EE0}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -848,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z990"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1059,39 +1059,43 @@
       <c r="Y6" s="24"/>
       <c r="Z6" s="24"/>
     </row>
-    <row r="7" spans="1:26" s="81" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" s="65" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24"/>
       <c r="B7" s="35">
-        <v>44677</v>
+        <v>44678</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="E7" s="36">
-        <v>8624984011</v>
+        <v>9890049988</v>
       </c>
       <c r="F7" s="27"/>
       <c r="G7" s="37"/>
       <c r="H7" s="37">
-        <v>268</v>
+        <v>69</v>
       </c>
       <c r="I7" s="28"/>
       <c r="J7" s="39">
-        <v>938</v>
+        <v>241</v>
       </c>
       <c r="K7" s="30"/>
       <c r="L7" s="31"/>
       <c r="M7" s="43"/>
       <c r="N7" s="66"/>
-      <c r="O7" s="66"/>
+      <c r="O7" s="66">
+        <v>250</v>
+      </c>
       <c r="P7" s="43"/>
       <c r="Q7" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="R7" s="67"/>
+        <v>30</v>
+      </c>
+      <c r="R7" s="67" t="s">
+        <v>28</v>
+      </c>
       <c r="S7" s="24"/>
       <c r="T7" s="24"/>
       <c r="U7" s="24"/>
@@ -1101,80 +1105,72 @@
       <c r="Y7" s="24"/>
       <c r="Z7" s="24"/>
     </row>
-    <row r="8" spans="1:26" s="65" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
+    <row r="8" spans="1:26" s="80" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
       <c r="B8" s="35">
-        <v>44678</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>27</v>
+        <v>44679</v>
+      </c>
+      <c r="C8" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="74" t="s">
+        <v>33</v>
       </c>
       <c r="E8" s="36">
-        <v>9890049988</v>
-      </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="37"/>
+        <v>8830136392</v>
+      </c>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
       <c r="H8" s="37">
-        <v>69</v>
-      </c>
-      <c r="I8" s="28"/>
+        <v>151</v>
+      </c>
+      <c r="I8" s="38"/>
       <c r="J8" s="39">
-        <v>241</v>
-      </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="31"/>
+        <v>528</v>
+      </c>
+      <c r="K8" s="40"/>
+      <c r="L8" s="41"/>
       <c r="M8" s="43"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66">
-        <v>250</v>
-      </c>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
       <c r="P8" s="43"/>
-      <c r="Q8" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="R8" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
-      <c r="X8" s="24"/>
-      <c r="Y8" s="24"/>
-      <c r="Z8" s="24"/>
-    </row>
-    <row r="9" spans="1:26" s="80" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q8" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="R8" s="79"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:26" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="35">
-        <v>44679</v>
+        <v>44680</v>
       </c>
       <c r="C9" s="73" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D9" s="74" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E9" s="36">
-        <v>8830136392</v>
-      </c>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
+        <v>9359546104</v>
+      </c>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
       <c r="H9" s="37">
-        <v>151</v>
+        <v>219</v>
       </c>
       <c r="I9" s="38"/>
       <c r="J9" s="39">
-        <v>528</v>
+        <v>766</v>
       </c>
       <c r="K9" s="40"/>
       <c r="L9" s="41"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="43">
+        <v>100</v>
+      </c>
       <c r="P9" s="43"/>
       <c r="Q9" s="72" t="s">
         <v>34</v>
@@ -1183,117 +1179,121 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:26" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="35">
-        <v>44680</v>
+      <c r="B10" s="75">
+        <v>44681</v>
       </c>
       <c r="C10" s="73" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10" s="36">
-        <v>9359546104</v>
+        <v>7385759070</v>
       </c>
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
       <c r="H10" s="37">
-        <v>219</v>
+        <v>270</v>
       </c>
       <c r="I10" s="38"/>
       <c r="J10" s="39">
-        <v>766</v>
+        <v>945</v>
       </c>
       <c r="K10" s="40"/>
       <c r="L10" s="41"/>
       <c r="M10" s="42"/>
       <c r="N10" s="42"/>
-      <c r="O10" s="43">
-        <v>100</v>
-      </c>
+      <c r="O10" s="43"/>
       <c r="P10" s="43"/>
-      <c r="Q10" s="72" t="s">
-        <v>34</v>
-      </c>
-      <c r="R10" s="79"/>
+      <c r="Q10" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="R10" s="45"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="75">
-        <v>44681</v>
+        <v>44682</v>
       </c>
       <c r="C11" s="73" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D11" s="74" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E11" s="36">
-        <v>7385759070</v>
-      </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
+        <v>9970017270</v>
+      </c>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
       <c r="H11" s="37">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="I11" s="38"/>
       <c r="J11" s="39">
-        <v>945</v>
+        <v>805</v>
       </c>
       <c r="K11" s="40"/>
       <c r="L11" s="41"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43">
+        <v>100</v>
+      </c>
       <c r="P11" s="43"/>
       <c r="Q11" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="R11" s="45"/>
+        <v>42</v>
+      </c>
+      <c r="R11" s="49"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:26" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="75">
-        <v>44682</v>
-      </c>
-      <c r="C12" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="74" t="s">
-        <v>39</v>
+    <row r="12" spans="1:26" s="81" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" s="35">
+        <v>44683</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>63</v>
       </c>
       <c r="E12" s="36">
-        <v>9970017270</v>
-      </c>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
+        <v>8624984011</v>
+      </c>
+      <c r="F12" s="27"/>
+      <c r="G12" s="37"/>
       <c r="H12" s="37">
-        <v>230</v>
-      </c>
-      <c r="I12" s="38"/>
+        <v>268</v>
+      </c>
+      <c r="I12" s="28"/>
       <c r="J12" s="39">
-        <v>805</v>
-      </c>
-      <c r="K12" s="40"/>
-      <c r="L12" s="41"/>
+        <v>938</v>
+      </c>
+      <c r="K12" s="30"/>
+      <c r="L12" s="31"/>
       <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43">
-        <v>100</v>
-      </c>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
       <c r="P12" s="43"/>
-      <c r="Q12" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="R12" s="49"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
+      <c r="Q12" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="R12" s="67"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="24"/>
     </row>
     <row r="13" spans="1:26" ht="35.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
@@ -1753,7 +1753,7 @@
         <v>11004</v>
       </c>
       <c r="K27" s="46">
-        <f t="shared" ref="K27:P27" si="0">SUM(K10:K26)</f>
+        <f t="shared" ref="K27:P27" si="0">SUM(K9:K26)</f>
         <v>0</v>
       </c>
       <c r="L27" s="46">
@@ -1769,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="46">
-        <f>SUM(O8:O26)</f>
+        <f>SUM(O7:O26)</f>
         <v>1585</v>
       </c>
       <c r="P27" s="46">
